--- a/Backup/team_data/Sunrisers_SriLanka/Sunrisers_SriLanka.xlsx
+++ b/Backup/team_data/Sunrisers_SriLanka/Sunrisers_SriLanka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT\1st Year\1st Trimester\CM1601 [PRO]  Programming Fundamentals\Course Work\team_data\Sunrisers_SriLanka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61F8152-BD5D-48FC-80CF-304709C0F214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C79722E-B759-4725-A2A9-581C18AF0658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6810" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16575" yWindow="-1530" windowWidth="15375" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,37 +43,37 @@
     <t>Dinesh Chandimal</t>
   </si>
   <si>
+    <t>Pathum Nissanka</t>
+  </si>
+  <si>
     <t>Charith Asalanka</t>
   </si>
   <si>
+    <t>Bhanuka Rajapakse</t>
+  </si>
+  <si>
+    <t>Dasun Shanka(C)</t>
+  </si>
+  <si>
+    <t>Wanindu Hasaranga</t>
+  </si>
+  <si>
+    <t>Chamika Karunarathne</t>
+  </si>
+  <si>
+    <t>Dushmantha Chameera</t>
+  </si>
+  <si>
+    <t>Maheesh Theekshana</t>
+  </si>
+  <si>
+    <t>Nuwan Pradeep</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>Dhananjaya de Silva</t>
-  </si>
-  <si>
-    <t>Bhanuka Rajapakse</t>
-  </si>
-  <si>
-    <t>Dasun Shanka(C)</t>
-  </si>
-  <si>
-    <t>Wanindu Hasaranga</t>
-  </si>
-  <si>
-    <t>Chamika Karunarathne</t>
-  </si>
-  <si>
-    <t>Dushmantha Chameera</t>
-  </si>
-  <si>
-    <t>Maheesh Theekshana</t>
-  </si>
-  <si>
-    <t>Nuwan Pradeep</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Pathum Nissanka</t>
   </si>
 </sst>
 </file>
@@ -478,12 +478,12 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -528,7 +528,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>0</v>
